--- a/documentation/nsaa_6mw_info.xlsx
+++ b/documentation/nsaa_6mw_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dheat\Dropbox\Imperial\Individual Project\indiv_proj\project_files\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dheat\Dropbox\Imperial\Individual Project\indiv_proj\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE05A3-9F04-4713-83DD-7712BF82A486}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CA3206-627B-4909-B7E7-9A71C25F720B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{839416F4-58CE-4A81-80E8-DD6EE384ADEB}"/>
   </bookViews>
@@ -152,12 +152,6 @@
     <t>D20</t>
   </si>
   <si>
-    <t>D4v2</t>
-  </si>
-  <si>
-    <t>D5v2</t>
-  </si>
-  <si>
     <t>HC</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>HC13</t>
+  </si>
+  <si>
+    <t>D4V2</t>
+  </si>
+  <si>
+    <t>D5V2</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1738,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1755,7 +1755,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>1</v>
